--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H2">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I2">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J2">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.338758666666666</v>
+        <v>8.002718666666667</v>
       </c>
       <c r="N2">
-        <v>16.016276</v>
+        <v>24.008156</v>
       </c>
       <c r="O2">
-        <v>0.03816074852047625</v>
+        <v>0.05667674179228412</v>
       </c>
       <c r="P2">
-        <v>0.03816074852047625</v>
+        <v>0.05667674179228412</v>
       </c>
       <c r="Q2">
-        <v>0.8793487195728887</v>
+        <v>4.721155861088</v>
       </c>
       <c r="R2">
-        <v>7.914138476155999</v>
+        <v>42.490402749792</v>
       </c>
       <c r="S2">
-        <v>0.002050453684268889</v>
+        <v>0.007455083963058981</v>
       </c>
       <c r="T2">
-        <v>0.002050453684268889</v>
+        <v>0.00745508396305898</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H3">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I3">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J3">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>103.731021</v>
       </c>
       <c r="O3">
-        <v>0.2471519225913216</v>
+        <v>0.2448807935547821</v>
       </c>
       <c r="P3">
-        <v>0.2471519225913216</v>
+        <v>0.2448807935547821</v>
       </c>
       <c r="Q3">
-        <v>5.695190348639</v>
+        <v>20.398497817608</v>
       </c>
       <c r="R3">
-        <v>51.256713137751</v>
+        <v>183.586480358472</v>
       </c>
       <c r="S3">
-        <v>0.0132799693375928</v>
+        <v>0.03221086497142198</v>
       </c>
       <c r="T3">
-        <v>0.0132799693375928</v>
+        <v>0.03221086497142198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H4">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I4">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J4">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.37050566666667</v>
+        <v>25.91887033333333</v>
       </c>
       <c r="N4">
-        <v>58.111517</v>
+        <v>77.75661099999999</v>
       </c>
       <c r="O4">
-        <v>0.1384578404106161</v>
+        <v>0.1835622596041978</v>
       </c>
       <c r="P4">
-        <v>0.1384578404106161</v>
+        <v>0.1835622596041978</v>
       </c>
       <c r="Q4">
-        <v>3.190522445191889</v>
+        <v>15.290682039928</v>
       </c>
       <c r="R4">
-        <v>28.714702006727</v>
+        <v>137.616138359352</v>
       </c>
       <c r="S4">
-        <v>0.007439617931852833</v>
+        <v>0.02414521397178174</v>
       </c>
       <c r="T4">
-        <v>0.007439617931852834</v>
+        <v>0.02414521397178173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H5">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I5">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J5">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.441262333333333</v>
+        <v>4.04944</v>
       </c>
       <c r="N5">
-        <v>13.323787</v>
+        <v>12.14832</v>
       </c>
       <c r="O5">
-        <v>0.0317455621423726</v>
+        <v>0.02867888711861257</v>
       </c>
       <c r="P5">
-        <v>0.03174556214237259</v>
+        <v>0.02867888711861257</v>
       </c>
       <c r="Q5">
-        <v>0.7315217993441111</v>
+        <v>2.38894283136</v>
       </c>
       <c r="R5">
-        <v>6.583696194097</v>
+        <v>21.50048548224</v>
       </c>
       <c r="S5">
-        <v>0.001705752831842054</v>
+        <v>0.003772332436114989</v>
       </c>
       <c r="T5">
-        <v>0.001705752831842054</v>
+        <v>0.003772332436114988</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H6">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I6">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J6">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.07072833333334</v>
+        <v>61.515049</v>
       </c>
       <c r="N6">
-        <v>153.212185</v>
+        <v>184.545147</v>
       </c>
       <c r="O6">
-        <v>0.3650468849349053</v>
+        <v>0.4356610164286719</v>
       </c>
       <c r="P6">
-        <v>0.3650468849349053</v>
+        <v>0.4356610164286718</v>
       </c>
       <c r="Q6">
-        <v>8.411876687359443</v>
+        <v>36.290434067256</v>
       </c>
       <c r="R6">
-        <v>75.706890186235</v>
+        <v>326.613906605304</v>
       </c>
       <c r="S6">
-        <v>0.01961470251937071</v>
+        <v>0.05730550758917354</v>
       </c>
       <c r="T6">
-        <v>0.01961470251937071</v>
+        <v>0.05730550758917353</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H7">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I7">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J7">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.103571</v>
+        <v>7.136257333333333</v>
       </c>
       <c r="N7">
-        <v>75.31071300000001</v>
+        <v>21.408772</v>
       </c>
       <c r="O7">
-        <v>0.1794370414003082</v>
+        <v>0.05054030150145152</v>
       </c>
       <c r="P7">
-        <v>0.1794370414003082</v>
+        <v>0.05054030150145152</v>
       </c>
       <c r="Q7">
-        <v>4.134817547267</v>
+        <v>4.209992196256</v>
       </c>
       <c r="R7">
-        <v>37.213357925403</v>
+        <v>37.889929766304</v>
       </c>
       <c r="S7">
-        <v>0.009641512729661184</v>
+        <v>0.006647915516959577</v>
       </c>
       <c r="T7">
-        <v>0.009641512729661185</v>
+        <v>0.006647915516959575</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2.034941</v>
       </c>
       <c r="I8">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J8">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.338758666666666</v>
+        <v>8.002718666666667</v>
       </c>
       <c r="N8">
-        <v>16.016276</v>
+        <v>24.008156</v>
       </c>
       <c r="O8">
-        <v>0.03816074852047625</v>
+        <v>0.05667674179228412</v>
       </c>
       <c r="P8">
-        <v>0.03816074852047625</v>
+        <v>0.05667674179228412</v>
       </c>
       <c r="Q8">
-        <v>3.621352966635111</v>
+        <v>5.428353442088444</v>
       </c>
       <c r="R8">
-        <v>32.59217669971599</v>
+        <v>48.855180978796</v>
       </c>
       <c r="S8">
-        <v>0.008444222829006512</v>
+        <v>0.008571805693913999</v>
       </c>
       <c r="T8">
-        <v>0.008444222829006512</v>
+        <v>0.008571805693913999</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2.034941</v>
       </c>
       <c r="I9">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J9">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>103.731021</v>
       </c>
       <c r="O9">
-        <v>0.2471519225913216</v>
+        <v>0.2448807935547821</v>
       </c>
       <c r="P9">
-        <v>0.2471519225913216</v>
+        <v>0.2448807935547821</v>
       </c>
       <c r="Q9">
         <v>23.454056400529</v>
@@ -1013,10 +1013,10 @@
         <v>211.086507604761</v>
       </c>
       <c r="S9">
-        <v>0.05468985771750898</v>
+        <v>0.03703583717313869</v>
       </c>
       <c r="T9">
-        <v>0.05468985771750898</v>
+        <v>0.03703583717313869</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2.034941</v>
       </c>
       <c r="I10">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J10">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.37050566666667</v>
+        <v>25.91887033333333</v>
       </c>
       <c r="N10">
-        <v>58.111517</v>
+        <v>77.75661099999999</v>
       </c>
       <c r="O10">
-        <v>0.1384578404106161</v>
+        <v>0.1835622596041978</v>
       </c>
       <c r="P10">
-        <v>0.1384578404106161</v>
+        <v>0.1835622596041978</v>
       </c>
       <c r="Q10">
-        <v>13.13927872394411</v>
+        <v>17.58112397166122</v>
       </c>
       <c r="R10">
-        <v>118.253508515497</v>
+        <v>158.230115744951</v>
       </c>
       <c r="S10">
-        <v>0.03063799590364202</v>
+        <v>0.02776200558298838</v>
       </c>
       <c r="T10">
-        <v>0.03063799590364202</v>
+        <v>0.02776200558298838</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2.034941</v>
       </c>
       <c r="I11">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J11">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.441262333333333</v>
+        <v>4.04944</v>
       </c>
       <c r="N11">
-        <v>13.323787</v>
+        <v>12.14832</v>
       </c>
       <c r="O11">
-        <v>0.0317455621423726</v>
+        <v>0.02867888711861257</v>
       </c>
       <c r="P11">
-        <v>0.03174556214237259</v>
+        <v>0.02867888711861257</v>
       </c>
       <c r="Q11">
-        <v>3.012568937951889</v>
+        <v>2.746790494346666</v>
       </c>
       <c r="R11">
-        <v>27.113120441567</v>
+        <v>24.72111444912</v>
       </c>
       <c r="S11">
-        <v>0.007024668303307223</v>
+        <v>0.00433740261215769</v>
       </c>
       <c r="T11">
-        <v>0.007024668303307222</v>
+        <v>0.004337402612157691</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2.034941</v>
       </c>
       <c r="I12">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J12">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>51.07072833333334</v>
+        <v>61.515049</v>
       </c>
       <c r="N12">
-        <v>153.212185</v>
+        <v>184.545147</v>
       </c>
       <c r="O12">
-        <v>0.3650468849349053</v>
+        <v>0.4356610164286719</v>
       </c>
       <c r="P12">
-        <v>0.3650468849349053</v>
+        <v>0.4356610164286718</v>
       </c>
       <c r="Q12">
-        <v>34.64197299512055</v>
+        <v>41.72649844236966</v>
       </c>
       <c r="R12">
-        <v>311.777756956085</v>
+        <v>375.538485981327</v>
       </c>
       <c r="S12">
-        <v>0.08077769328269375</v>
+        <v>0.06588948946511328</v>
       </c>
       <c r="T12">
-        <v>0.08077769328269375</v>
+        <v>0.06588948946511328</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2.034941</v>
       </c>
       <c r="I13">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J13">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.103571</v>
+        <v>7.136257333333333</v>
       </c>
       <c r="N13">
-        <v>75.31071300000001</v>
+        <v>21.408772</v>
       </c>
       <c r="O13">
-        <v>0.1794370414003082</v>
+        <v>0.05054030150145152</v>
       </c>
       <c r="P13">
-        <v>0.1794370414003082</v>
+        <v>0.05054030150145152</v>
       </c>
       <c r="Q13">
-        <v>17.028095291437</v>
+        <v>4.840620878050221</v>
       </c>
       <c r="R13">
-        <v>153.252857622933</v>
+        <v>43.56558790245199</v>
       </c>
       <c r="S13">
-        <v>0.03970588681060176</v>
+        <v>0.007643728811546652</v>
       </c>
       <c r="T13">
-        <v>0.03970588681060176</v>
+        <v>0.007643728811546652</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3320596666666666</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H14">
-        <v>0.9961789999999999</v>
+        <v>0.914852</v>
       </c>
       <c r="I14">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J14">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.338758666666666</v>
+        <v>8.002718666666667</v>
       </c>
       <c r="N14">
-        <v>16.016276</v>
+        <v>24.008156</v>
       </c>
       <c r="O14">
-        <v>0.03816074852047625</v>
+        <v>0.05667674179228412</v>
       </c>
       <c r="P14">
-        <v>0.03816074852047625</v>
+        <v>0.05667674179228412</v>
       </c>
       <c r="Q14">
-        <v>1.772786423267111</v>
+        <v>2.440434392545777</v>
       </c>
       <c r="R14">
-        <v>15.955077809404</v>
+        <v>21.963909532912</v>
       </c>
       <c r="S14">
-        <v>0.004133759874894101</v>
+        <v>0.003853641743268532</v>
       </c>
       <c r="T14">
-        <v>0.004133759874894101</v>
+        <v>0.003853641743268532</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3320596666666666</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H15">
-        <v>0.9961789999999999</v>
+        <v>0.914852</v>
       </c>
       <c r="I15">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J15">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>103.731021</v>
       </c>
       <c r="O15">
-        <v>0.2471519225913216</v>
+        <v>0.2448807935547821</v>
       </c>
       <c r="P15">
-        <v>0.2471519225913216</v>
+        <v>0.2448807935547821</v>
       </c>
       <c r="Q15">
-        <v>11.481629418751</v>
+        <v>10.544281335988</v>
       </c>
       <c r="R15">
-        <v>103.334664768759</v>
+        <v>94.898532023892</v>
       </c>
       <c r="S15">
-        <v>0.02677271123397208</v>
+        <v>0.01665026637603758</v>
       </c>
       <c r="T15">
-        <v>0.02677271123397208</v>
+        <v>0.01665026637603758</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3320596666666666</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H16">
-        <v>0.9961789999999999</v>
+        <v>0.914852</v>
       </c>
       <c r="I16">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J16">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.37050566666667</v>
+        <v>25.91887033333333</v>
       </c>
       <c r="N16">
-        <v>58.111517</v>
+        <v>77.75661099999999</v>
       </c>
       <c r="O16">
-        <v>0.1384578404106161</v>
+        <v>0.1835622596041978</v>
       </c>
       <c r="P16">
-        <v>0.1384578404106161</v>
+        <v>0.1835622596041978</v>
       </c>
       <c r="Q16">
-        <v>6.432163654838111</v>
+        <v>7.903976787396887</v>
       </c>
       <c r="R16">
-        <v>57.88947289354299</v>
+        <v>71.135791086572</v>
       </c>
       <c r="S16">
-        <v>0.01499843392083319</v>
+        <v>0.01248101361740123</v>
       </c>
       <c r="T16">
-        <v>0.01499843392083319</v>
+        <v>0.01248101361740123</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3320596666666666</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H17">
-        <v>0.9961789999999999</v>
+        <v>0.914852</v>
       </c>
       <c r="I17">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J17">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.441262333333333</v>
+        <v>4.04944</v>
       </c>
       <c r="N17">
-        <v>13.323787</v>
+        <v>12.14832</v>
       </c>
       <c r="O17">
-        <v>0.0317455621423726</v>
+        <v>0.02867888711861257</v>
       </c>
       <c r="P17">
-        <v>0.03174556214237259</v>
+        <v>0.02867888711861257</v>
       </c>
       <c r="Q17">
-        <v>1.474764089985889</v>
+        <v>1.234879427626667</v>
       </c>
       <c r="R17">
-        <v>13.272876809873</v>
+        <v>11.11391484864</v>
       </c>
       <c r="S17">
-        <v>0.003438835349880064</v>
+        <v>0.00194997371154136</v>
       </c>
       <c r="T17">
-        <v>0.003438835349880063</v>
+        <v>0.001949973711541361</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.3320596666666666</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H18">
-        <v>0.9961789999999999</v>
+        <v>0.914852</v>
       </c>
       <c r="I18">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J18">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>51.07072833333334</v>
+        <v>61.515049</v>
       </c>
       <c r="N18">
-        <v>153.212185</v>
+        <v>184.545147</v>
       </c>
       <c r="O18">
-        <v>0.3650468849349053</v>
+        <v>0.4356610164286719</v>
       </c>
       <c r="P18">
-        <v>0.3650468849349053</v>
+        <v>0.4356610164286718</v>
       </c>
       <c r="Q18">
-        <v>16.95852902679055</v>
+        <v>18.75905520258267</v>
       </c>
       <c r="R18">
-        <v>152.626761241115</v>
+        <v>168.831496823244</v>
       </c>
       <c r="S18">
-        <v>0.03954367311713734</v>
+        <v>0.02962205352201259</v>
       </c>
       <c r="T18">
-        <v>0.03954367311713734</v>
+        <v>0.02962205352201258</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.3320596666666666</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H19">
-        <v>0.9961789999999999</v>
+        <v>0.914852</v>
       </c>
       <c r="I19">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J19">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.103571</v>
+        <v>7.136257333333333</v>
       </c>
       <c r="N19">
-        <v>75.31071300000001</v>
+        <v>21.408772</v>
       </c>
       <c r="O19">
-        <v>0.1794370414003082</v>
+        <v>0.05054030150145152</v>
       </c>
       <c r="P19">
-        <v>0.1794370414003082</v>
+        <v>0.05054030150145152</v>
       </c>
       <c r="Q19">
-        <v>8.335883418403</v>
+        <v>2.176206431304889</v>
       </c>
       <c r="R19">
-        <v>75.022950765627</v>
+        <v>19.585857881744</v>
       </c>
       <c r="S19">
-        <v>0.01943750242247734</v>
+        <v>0.003436404588978785</v>
       </c>
       <c r="T19">
-        <v>0.01943750242247734</v>
+        <v>0.003436404588978785</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>1.362438</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H20">
-        <v>4.087314</v>
+        <v>1.239283</v>
       </c>
       <c r="I20">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J20">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.338758666666666</v>
+        <v>8.002718666666667</v>
       </c>
       <c r="N20">
-        <v>16.016276</v>
+        <v>24.008156</v>
       </c>
       <c r="O20">
-        <v>0.03816074852047625</v>
+        <v>0.05667674179228412</v>
       </c>
       <c r="P20">
-        <v>0.03816074852047625</v>
+        <v>0.05667674179228412</v>
       </c>
       <c r="Q20">
-        <v>7.273727680295999</v>
+        <v>3.305877732460889</v>
       </c>
       <c r="R20">
-        <v>65.46354912266399</v>
+        <v>29.752899592148</v>
       </c>
       <c r="S20">
-        <v>0.01696078175638405</v>
+        <v>0.005220246226190746</v>
       </c>
       <c r="T20">
-        <v>0.01696078175638405</v>
+        <v>0.005220246226190746</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>1.362438</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H21">
-        <v>4.087314</v>
+        <v>1.239283</v>
       </c>
       <c r="I21">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J21">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>103.731021</v>
       </c>
       <c r="O21">
-        <v>0.2471519225913216</v>
+        <v>0.2448807935547821</v>
       </c>
       <c r="P21">
-        <v>0.2471519225913216</v>
+        <v>0.2448807935547821</v>
       </c>
       <c r="Q21">
-        <v>47.109028263066</v>
+        <v>14.283565655327</v>
       </c>
       <c r="R21">
-        <v>423.981254367594</v>
+        <v>128.552090897943</v>
       </c>
       <c r="S21">
-        <v>0.1098482074452196</v>
+        <v>0.02255489638246949</v>
       </c>
       <c r="T21">
-        <v>0.1098482074452196</v>
+        <v>0.02255489638246949</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>1.362438</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H22">
-        <v>4.087314</v>
+        <v>1.239283</v>
       </c>
       <c r="I22">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J22">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>19.37050566666667</v>
+        <v>25.91887033333333</v>
       </c>
       <c r="N22">
-        <v>58.111517</v>
+        <v>77.75661099999999</v>
       </c>
       <c r="O22">
-        <v>0.1384578404106161</v>
+        <v>0.1835622596041978</v>
       </c>
       <c r="P22">
-        <v>0.1384578404106161</v>
+        <v>0.1835622596041978</v>
       </c>
       <c r="Q22">
-        <v>26.391112999482</v>
+        <v>10.70693846110144</v>
       </c>
       <c r="R22">
-        <v>237.520016995338</v>
+        <v>96.36244614991298</v>
       </c>
       <c r="S22">
-        <v>0.06153844735002081</v>
+        <v>0.01690711502933136</v>
       </c>
       <c r="T22">
-        <v>0.06153844735002081</v>
+        <v>0.01690711502933136</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>1.362438</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H23">
-        <v>4.087314</v>
+        <v>1.239283</v>
       </c>
       <c r="I23">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J23">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.441262333333333</v>
+        <v>4.04944</v>
       </c>
       <c r="N23">
-        <v>13.323787</v>
+        <v>12.14832</v>
       </c>
       <c r="O23">
-        <v>0.0317455621423726</v>
+        <v>0.02867888711861257</v>
       </c>
       <c r="P23">
-        <v>0.03174556214237259</v>
+        <v>0.02867888711861257</v>
       </c>
       <c r="Q23">
-        <v>6.050944570902001</v>
+        <v>1.672800717173333</v>
       </c>
       <c r="R23">
-        <v>54.458501138118</v>
+        <v>15.05520645456</v>
       </c>
       <c r="S23">
-        <v>0.01410951231581842</v>
+        <v>0.002641486569587334</v>
       </c>
       <c r="T23">
-        <v>0.01410951231581842</v>
+        <v>0.002641486569587334</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>1.362438</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H24">
-        <v>4.087314</v>
+        <v>1.239283</v>
       </c>
       <c r="I24">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J24">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>51.07072833333334</v>
+        <v>61.515049</v>
       </c>
       <c r="N24">
-        <v>153.212185</v>
+        <v>184.545147</v>
       </c>
       <c r="O24">
-        <v>0.3650468849349053</v>
+        <v>0.4356610164286719</v>
       </c>
       <c r="P24">
-        <v>0.3650468849349053</v>
+        <v>0.4356610164286718</v>
       </c>
       <c r="Q24">
-        <v>69.58070096901001</v>
+        <v>25.41151815662233</v>
       </c>
       <c r="R24">
-        <v>626.22630872109</v>
+        <v>228.703663409601</v>
       </c>
       <c r="S24">
-        <v>0.1622473558899546</v>
+        <v>0.04012682636636344</v>
       </c>
       <c r="T24">
-        <v>0.1622473558899546</v>
+        <v>0.04012682636636343</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>1.362438</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H25">
-        <v>4.087314</v>
+        <v>1.239283</v>
       </c>
       <c r="I25">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J25">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.103571</v>
+        <v>7.136257333333333</v>
       </c>
       <c r="N25">
-        <v>75.31071300000001</v>
+        <v>21.408772</v>
       </c>
       <c r="O25">
-        <v>0.1794370414003082</v>
+        <v>0.05054030150145152</v>
       </c>
       <c r="P25">
-        <v>0.1794370414003082</v>
+        <v>0.05054030150145152</v>
       </c>
       <c r="Q25">
-        <v>34.202059066098</v>
+        <v>2.947947465608444</v>
       </c>
       <c r="R25">
-        <v>307.818531594882</v>
+        <v>26.531527190476</v>
       </c>
       <c r="S25">
-        <v>0.07975190781619119</v>
+        <v>0.004655045612015272</v>
       </c>
       <c r="T25">
-        <v>0.07975190781619119</v>
+        <v>0.004655045612015272</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.2558096666666667</v>
+        <v>0.8655823333333333</v>
       </c>
       <c r="H26">
-        <v>0.767429</v>
+        <v>2.596747</v>
       </c>
       <c r="I26">
-        <v>0.08345054643688657</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="J26">
-        <v>0.08345054643688658</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.338758666666666</v>
+        <v>8.002718666666667</v>
       </c>
       <c r="N26">
-        <v>16.016276</v>
+        <v>24.008156</v>
       </c>
       <c r="O26">
-        <v>0.03816074852047625</v>
+        <v>0.05667674179228412</v>
       </c>
       <c r="P26">
-        <v>0.03816074852047625</v>
+        <v>0.05667674179228412</v>
       </c>
       <c r="Q26">
-        <v>1.365706074933778</v>
+        <v>6.927011896503555</v>
       </c>
       <c r="R26">
-        <v>12.291354674404</v>
+        <v>62.343107068532</v>
       </c>
       <c r="S26">
-        <v>0.003184535316474354</v>
+        <v>0.01093830765621908</v>
       </c>
       <c r="T26">
-        <v>0.003184535316474355</v>
+        <v>0.01093830765621908</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.2558096666666667</v>
+        <v>0.8655823333333333</v>
       </c>
       <c r="H27">
-        <v>0.767429</v>
+        <v>2.596747</v>
       </c>
       <c r="I27">
-        <v>0.08345054643688657</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="J27">
-        <v>0.08345054643688658</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>103.731021</v>
       </c>
       <c r="O27">
-        <v>0.2471519225913216</v>
+        <v>0.2448807935547821</v>
       </c>
       <c r="P27">
-        <v>0.2471519225913216</v>
+        <v>0.2448807935547821</v>
       </c>
       <c r="Q27">
-        <v>8.845132635001001</v>
+        <v>29.929246398743</v>
       </c>
       <c r="R27">
-        <v>79.606193715009</v>
+        <v>269.363217588687</v>
       </c>
       <c r="S27">
-        <v>0.02062496299317287</v>
+        <v>0.0472606817946252</v>
       </c>
       <c r="T27">
-        <v>0.02062496299317288</v>
+        <v>0.0472606817946252</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.2558096666666667</v>
+        <v>0.8655823333333333</v>
       </c>
       <c r="H28">
-        <v>0.767429</v>
+        <v>2.596747</v>
       </c>
       <c r="I28">
-        <v>0.08345054643688657</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="J28">
-        <v>0.08345054643688658</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>19.37050566666667</v>
+        <v>25.91887033333333</v>
       </c>
       <c r="N28">
-        <v>58.111517</v>
+        <v>77.75661099999999</v>
       </c>
       <c r="O28">
-        <v>0.1384578404106161</v>
+        <v>0.1835622596041978</v>
       </c>
       <c r="P28">
-        <v>0.1384578404106161</v>
+        <v>0.1835622596041978</v>
       </c>
       <c r="Q28">
-        <v>4.955162597754778</v>
+        <v>22.43491626049078</v>
       </c>
       <c r="R28">
-        <v>44.596463379793</v>
+        <v>201.914246344417</v>
       </c>
       <c r="S28">
-        <v>0.01155438244073715</v>
+        <v>0.03542653310912126</v>
       </c>
       <c r="T28">
-        <v>0.01155438244073715</v>
+        <v>0.03542653310912126</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.2558096666666667</v>
+        <v>0.8655823333333333</v>
       </c>
       <c r="H29">
-        <v>0.767429</v>
+        <v>2.596747</v>
       </c>
       <c r="I29">
-        <v>0.08345054643688657</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="J29">
-        <v>0.08345054643688658</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.441262333333333</v>
+        <v>4.04944</v>
       </c>
       <c r="N29">
-        <v>13.323787</v>
+        <v>12.14832</v>
       </c>
       <c r="O29">
-        <v>0.0317455621423726</v>
+        <v>0.02867888711861257</v>
       </c>
       <c r="P29">
-        <v>0.03174556214237259</v>
+        <v>0.02867888711861257</v>
       </c>
       <c r="Q29">
-        <v>1.136117837069222</v>
+        <v>3.505123723893333</v>
       </c>
       <c r="R29">
-        <v>10.225060533623</v>
+        <v>31.54611351504</v>
       </c>
       <c r="S29">
-        <v>0.002649184507727133</v>
+        <v>0.005534871635547491</v>
       </c>
       <c r="T29">
-        <v>0.002649184507727133</v>
+        <v>0.005534871635547492</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.2558096666666667</v>
+        <v>0.8655823333333333</v>
       </c>
       <c r="H30">
-        <v>0.767429</v>
+        <v>2.596747</v>
       </c>
       <c r="I30">
-        <v>0.08345054643688657</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="J30">
-        <v>0.08345054643688658</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>51.07072833333334</v>
+        <v>61.515049</v>
       </c>
       <c r="N30">
-        <v>153.212185</v>
+        <v>184.545147</v>
       </c>
       <c r="O30">
-        <v>0.3650468849349053</v>
+        <v>0.4356610164286719</v>
       </c>
       <c r="P30">
-        <v>0.3650468849349053</v>
+        <v>0.4356610164286718</v>
       </c>
       <c r="Q30">
-        <v>13.06438599137389</v>
+        <v>53.24633964853433</v>
       </c>
       <c r="R30">
-        <v>117.579473922365</v>
+        <v>479.217056836809</v>
       </c>
       <c r="S30">
-        <v>0.0304633620229011</v>
+        <v>0.08408024316187276</v>
       </c>
       <c r="T30">
-        <v>0.03046336202290111</v>
+        <v>0.08408024316187276</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.2558096666666667</v>
+        <v>0.8655823333333333</v>
       </c>
       <c r="H31">
-        <v>0.767429</v>
+        <v>2.596747</v>
       </c>
       <c r="I31">
-        <v>0.08345054643688657</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="J31">
-        <v>0.08345054643688658</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.103571</v>
+        <v>7.136257333333333</v>
       </c>
       <c r="N31">
-        <v>75.31071300000001</v>
+        <v>21.408772</v>
       </c>
       <c r="O31">
-        <v>0.1794370414003082</v>
+        <v>0.05054030150145152</v>
       </c>
       <c r="P31">
-        <v>0.1794370414003082</v>
+        <v>0.05054030150145152</v>
       </c>
       <c r="Q31">
-        <v>6.421736129653</v>
+        <v>6.177018273853777</v>
       </c>
       <c r="R31">
-        <v>57.79562516687701</v>
+        <v>55.593164464684</v>
       </c>
       <c r="S31">
-        <v>0.01497411915587395</v>
+        <v>0.009754007541347556</v>
       </c>
       <c r="T31">
-        <v>0.01497411915587396</v>
+        <v>0.009754007541347556</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.272073</v>
+        <v>1.633122</v>
       </c>
       <c r="H32">
-        <v>0.816219</v>
+        <v>4.899366000000001</v>
       </c>
       <c r="I32">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="J32">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.338758666666666</v>
+        <v>8.002718666666667</v>
       </c>
       <c r="N32">
-        <v>16.016276</v>
+        <v>24.008156</v>
       </c>
       <c r="O32">
-        <v>0.03816074852047625</v>
+        <v>0.05667674179228412</v>
       </c>
       <c r="P32">
-        <v>0.03816074852047625</v>
+        <v>0.05667674179228412</v>
       </c>
       <c r="Q32">
-        <v>1.452532086716</v>
+        <v>13.069415914344</v>
       </c>
       <c r="R32">
-        <v>13.072788780444</v>
+        <v>117.624743229096</v>
       </c>
       <c r="S32">
-        <v>0.003386995059448341</v>
+        <v>0.0206376565096328</v>
       </c>
       <c r="T32">
-        <v>0.003386995059448341</v>
+        <v>0.02063765650963279</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.272073</v>
+        <v>1.633122</v>
       </c>
       <c r="H33">
-        <v>0.816219</v>
+        <v>4.899366000000001</v>
       </c>
       <c r="I33">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="J33">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>103.731021</v>
       </c>
       <c r="O33">
-        <v>0.2471519225913216</v>
+        <v>0.2448807935547821</v>
       </c>
       <c r="P33">
-        <v>0.2471519225913216</v>
+        <v>0.2448807935547821</v>
       </c>
       <c r="Q33">
-        <v>9.407470025511001</v>
+        <v>56.46847082585401</v>
       </c>
       <c r="R33">
-        <v>84.667230229599</v>
+        <v>508.2162374326861</v>
       </c>
       <c r="S33">
-        <v>0.02193621386385525</v>
+        <v>0.08916824685708917</v>
       </c>
       <c r="T33">
-        <v>0.02193621386385525</v>
+        <v>0.08916824685708916</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.272073</v>
+        <v>1.633122</v>
       </c>
       <c r="H34">
-        <v>0.816219</v>
+        <v>4.899366000000001</v>
       </c>
       <c r="I34">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="J34">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>19.37050566666667</v>
+        <v>25.91887033333333</v>
       </c>
       <c r="N34">
-        <v>58.111517</v>
+        <v>77.75661099999999</v>
       </c>
       <c r="O34">
-        <v>0.1384578404106161</v>
+        <v>0.1835622596041978</v>
       </c>
       <c r="P34">
-        <v>0.1384578404106161</v>
+        <v>0.1835622596041978</v>
       </c>
       <c r="Q34">
-        <v>5.270191588247</v>
+        <v>42.328677356514</v>
       </c>
       <c r="R34">
-        <v>47.431724294223</v>
+        <v>380.958096208626</v>
       </c>
       <c r="S34">
-        <v>0.01228896286353009</v>
+        <v>0.06684037829357387</v>
       </c>
       <c r="T34">
-        <v>0.01228896286353009</v>
+        <v>0.06684037829357385</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.272073</v>
+        <v>1.633122</v>
       </c>
       <c r="H35">
-        <v>0.816219</v>
+        <v>4.899366000000001</v>
       </c>
       <c r="I35">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="J35">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.441262333333333</v>
+        <v>4.04944</v>
       </c>
       <c r="N35">
-        <v>13.323787</v>
+        <v>12.14832</v>
       </c>
       <c r="O35">
-        <v>0.0317455621423726</v>
+        <v>0.02867888711861257</v>
       </c>
       <c r="P35">
-        <v>0.03174556214237259</v>
+        <v>0.02867888711861257</v>
       </c>
       <c r="Q35">
-        <v>1.208347566817</v>
+        <v>6.61322955168</v>
       </c>
       <c r="R35">
-        <v>10.875128101353</v>
+        <v>59.51906596512001</v>
       </c>
       <c r="S35">
-        <v>0.002817608833797697</v>
+        <v>0.01044282015366371</v>
       </c>
       <c r="T35">
-        <v>0.002817608833797696</v>
+        <v>0.01044282015366371</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.272073</v>
+        <v>1.633122</v>
       </c>
       <c r="H36">
-        <v>0.816219</v>
+        <v>4.899366000000001</v>
       </c>
       <c r="I36">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="J36">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>51.07072833333334</v>
+        <v>61.515049</v>
       </c>
       <c r="N36">
-        <v>153.212185</v>
+        <v>184.545147</v>
       </c>
       <c r="O36">
-        <v>0.3650468849349053</v>
+        <v>0.4356610164286719</v>
       </c>
       <c r="P36">
-        <v>0.3650468849349053</v>
+        <v>0.4356610164286718</v>
       </c>
       <c r="Q36">
-        <v>13.894966269835</v>
+        <v>100.461579852978</v>
       </c>
       <c r="R36">
-        <v>125.054696428515</v>
+        <v>904.1542186768021</v>
       </c>
       <c r="S36">
-        <v>0.03240009810284771</v>
+        <v>0.1586368963241363</v>
       </c>
       <c r="T36">
-        <v>0.03240009810284771</v>
+        <v>0.1586368963241363</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.272073</v>
+        <v>1.633122</v>
       </c>
       <c r="H37">
-        <v>0.816219</v>
+        <v>4.899366000000001</v>
       </c>
       <c r="I37">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="J37">
-        <v>0.08875599118898181</v>
+        <v>0.3641291975686995</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.103571</v>
+        <v>7.136257333333333</v>
       </c>
       <c r="N37">
-        <v>75.31071300000001</v>
+        <v>21.408772</v>
       </c>
       <c r="O37">
-        <v>0.1794370414003082</v>
+        <v>0.05054030150145152</v>
       </c>
       <c r="P37">
-        <v>0.1794370414003082</v>
+        <v>0.05054030150145152</v>
       </c>
       <c r="Q37">
-        <v>6.830003872683001</v>
+        <v>11.654378848728</v>
       </c>
       <c r="R37">
-        <v>61.47003485414701</v>
+        <v>104.889409638552</v>
       </c>
       <c r="S37">
-        <v>0.01592611246550272</v>
+        <v>0.01840319943060368</v>
       </c>
       <c r="T37">
-        <v>0.01592611246550272</v>
+        <v>0.01840319943060368</v>
       </c>
     </row>
   </sheetData>
